--- a/data/17.10.ученики(1).xlsx
+++ b/data/17.10.ученики(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Кобус\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Симукова\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="194">
   <si>
     <t>Текущее расписание на 17.10.2024   Четверг,   Нижняя неделя,  1 корпус</t>
   </si>
@@ -601,16 +601,13 @@
   </si>
   <si>
     <t>ТПИ404 - 4 пара в корпусе 2</t>
-  </si>
-  <si>
-    <t>Обраб.циф.информ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -651,11 +648,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -677,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -789,64 +781,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -878,6 +817,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -897,21 +839,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_TDSheet" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1219,8 +1149,8 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="W79" sqref="V79:W79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1250,30 +1180,30 @@
     </row>
     <row r="2" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1420,30 +1350,30 @@
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1730,30 +1660,30 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18" t="s">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -1958,30 +1888,30 @@
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -1994,17 +1924,17 @@
       <c r="D23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>74</v>
+      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>5</v>
@@ -2038,17 +1968,17 @@
       <c r="D24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>76</v>
+      <c r="E24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>12</v>
@@ -2082,17 +2012,17 @@
       <c r="D25" s="7">
         <v>67</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>66</v>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>10</v>
@@ -2126,17 +2056,17 @@
       <c r="D26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>66</v>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="9"/>
@@ -2148,30 +2078,30 @@
       <c r="P26" s="10"/>
     </row>
     <row r="27" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18" t="s">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -2372,30 +2302,30 @@
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18" t="s">
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -2413,7 +2343,7 @@
       <c r="E34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="16" t="s">
         <v>188</v>
       </c>
       <c r="G34" s="6"/>
@@ -2614,30 +2544,30 @@
       <c r="P39" s="10"/>
     </row>
     <row r="40" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18" t="s">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18" t="s">
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
     </row>
     <row r="41" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -2758,16 +2688,16 @@
       <c r="L43" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" s="12" t="s">
+      <c r="M43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="O43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="14" t="s">
+      <c r="O43" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2796,44 +2726,44 @@
       <c r="L44" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="12" t="s">
+      <c r="M44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="O44" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P44" s="14" t="s">
+      <c r="O44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18" t="s">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18" t="s">
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -2860,16 +2790,16 @@
       <c r="H46" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I46" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="12" t="s">
+      <c r="I46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="14" t="s">
+      <c r="K46" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="15" t="s">
         <v>114</v>
       </c>
       <c r="M46" s="4" t="s">
@@ -2906,16 +2836,16 @@
       <c r="H47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="12" t="s">
+      <c r="I47" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="14" t="s">
+      <c r="K47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="15" t="s">
         <v>115</v>
       </c>
       <c r="M47" s="4" t="s">
@@ -2954,16 +2884,16 @@
       <c r="H48" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="12" t="s">
+      <c r="I48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="14" t="s">
+      <c r="K48" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="15" t="s">
         <v>114</v>
       </c>
       <c r="M48" s="4" t="s">
@@ -2996,16 +2926,16 @@
       <c r="H49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="12" t="s">
+      <c r="I49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K49" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="14" t="s">
+      <c r="K49" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="15" t="s">
         <v>115</v>
       </c>
       <c r="M49" s="4" t="s">
@@ -3120,30 +3050,30 @@
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18" t="s">
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
     </row>
     <row r="54" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
@@ -3384,30 +3314,30 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18" t="s">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18" t="s">
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
     </row>
     <row r="61" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
@@ -3646,30 +3576,30 @@
       </c>
     </row>
     <row r="67" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18" t="s">
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18" t="s">
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
     </row>
     <row r="68" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
@@ -3906,42 +3836,42 @@
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18" t="s">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18" t="s">
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
     </row>
     <row r="75" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="14" t="s">
+      <c r="C75" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="15" t="s">
         <v>161</v>
       </c>
       <c r="E75" s="4">
@@ -3976,14 +3906,14 @@
       </c>
     </row>
     <row r="76" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="12" t="s">
+      <c r="A76" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14" t="s">
+      <c r="C76" s="14"/>
+      <c r="D76" s="15" t="s">
         <v>161</v>
       </c>
       <c r="E76" s="4">
@@ -4028,16 +3958,16 @@
       <c r="D77" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="12" t="s">
+      <c r="E77" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G77" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H77" s="14" t="s">
+      <c r="G77" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="15" t="s">
         <v>114</v>
       </c>
       <c r="I77" s="4" t="s">
@@ -4062,28 +3992,28 @@
       </c>
     </row>
     <row r="78" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E78" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="12" t="s">
+      <c r="E78" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G78" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="14" t="s">
+      <c r="G78" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="15" t="s">
         <v>115</v>
       </c>
       <c r="I78" s="4"/>
@@ -4130,40 +4060,40 @@
       </c>
     </row>
     <row r="80" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18" t="s">
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18" t="s">
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
     </row>
     <row r="81" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="20" t="s">
+      <c r="A81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="22" t="s">
+      <c r="C81" s="6"/>
+      <c r="D81" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -4198,15 +4128,17 @@
       </c>
     </row>
     <row r="82" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="21"/>
+      <c r="B82" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D82" s="7" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>19</v>
@@ -4240,15 +4172,17 @@
       </c>
     </row>
     <row r="83" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22" t="s">
-        <v>70</v>
+      <c r="A83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>22</v>
@@ -4284,10 +4218,16 @@
       </c>
     </row>
     <row r="84" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
+      <c r="A84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
+      <c r="D84" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
       <c r="G84" s="6"/>
@@ -4334,30 +4274,30 @@
       </c>
     </row>
     <row r="86" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18" t="s">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18" t="s">
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18" t="s">
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
     </row>
     <row r="87" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
@@ -4542,24 +4482,24 @@
       <c r="P91" s="10"/>
     </row>
     <row r="92" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18" t="s">
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18" t="s">
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
     </row>
     <row r="93" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
@@ -4572,14 +4512,14 @@
       <c r="D93" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="12" t="s">
+      <c r="E93" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="14" t="s">
+      <c r="G93" s="14"/>
+      <c r="H93" s="15" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="4" t="s">
@@ -4665,72 +4605,123 @@
       <c r="K96" s="6"/>
       <c r="L96" s="10"/>
     </row>
-    <row r="98" spans="1:16" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
+    <row r="98" spans="1:16" s="18" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16" t="s">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-    </row>
-    <row r="99" spans="1:16" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+    </row>
+    <row r="99" spans="1:16" s="18" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16" t="s">
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-    </row>
-    <row r="100" spans="1:16" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+    </row>
+    <row r="100" spans="1:16" s="18" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="M86:P86"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:L3"/>
@@ -4739,57 +4730,6 @@
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="M86:P86"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="I80:L80"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="70" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
